--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/产成品.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/产成品.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>186.3718</v>
-      </c>
-      <c r="C2" t="n">
-        <v>322.63854</v>
-      </c>
-      <c r="D2" t="n">
-        <v>35.4363</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02858</v>
-      </c>
-      <c r="F2" t="n">
-        <v>20.3807</v>
-      </c>
-      <c r="G2" t="n">
-        <v>262.39822</v>
-      </c>
-      <c r="H2" t="n">
-        <v>52.82423</v>
-      </c>
-      <c r="I2" t="n">
-        <v>113.65178</v>
-      </c>
-      <c r="J2" t="n">
-        <v>16.32674</v>
-      </c>
-      <c r="K2" t="n">
-        <v>50.35522</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3614.85864</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6.53636</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8.34277</v>
-      </c>
-      <c r="O2" t="n">
-        <v>247.86514</v>
-      </c>
-      <c r="P2" t="n">
-        <v>93.10038</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>13.35499</v>
-      </c>
-      <c r="R2" t="n">
-        <v>53.97766</v>
-      </c>
-      <c r="S2" t="n">
-        <v>18.48198</v>
-      </c>
-      <c r="T2" t="n">
-        <v>13.41834</v>
-      </c>
-      <c r="U2" t="n">
-        <v>69.67658</v>
-      </c>
-      <c r="V2" t="n">
-        <v>15.62991</v>
-      </c>
-      <c r="W2" t="n">
-        <v>7.34298</v>
-      </c>
-      <c r="X2" t="n">
-        <v>74.78531</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>18.41621</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>323.85465</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>279.99954</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>34.54247</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>127.08342</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>34.10162</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>298.07106</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1.1761</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>76.48918999999999</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>75.16392</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>166.5531</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>18.95452</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>39.86988</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>96.67451</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>95.88615</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>209.28201</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>5.60696</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>186.30213</v>
-      </c>
-      <c r="C3" t="n">
-        <v>364.88315</v>
-      </c>
-      <c r="D3" t="n">
-        <v>43.27276</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.01327</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.11308</v>
-      </c>
-      <c r="G3" t="n">
-        <v>259.95135</v>
-      </c>
-      <c r="H3" t="n">
-        <v>52.52771</v>
-      </c>
-      <c r="I3" t="n">
-        <v>131.94454</v>
-      </c>
-      <c r="J3" t="n">
-        <v>19.28961</v>
-      </c>
-      <c r="K3" t="n">
-        <v>55.94219</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3941.90333</v>
-      </c>
-      <c r="M3" t="n">
-        <v>8.348409999999999</v>
-      </c>
-      <c r="N3" t="n">
-        <v>11.44221</v>
-      </c>
-      <c r="O3" t="n">
-        <v>255.06452</v>
-      </c>
-      <c r="P3" t="n">
-        <v>110.3168</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>13.75567</v>
-      </c>
-      <c r="R3" t="n">
-        <v>68.39345</v>
-      </c>
-      <c r="S3" t="n">
-        <v>21.18808</v>
-      </c>
-      <c r="T3" t="n">
-        <v>11.75705</v>
-      </c>
-      <c r="U3" t="n">
-        <v>72.13924</v>
-      </c>
-      <c r="V3" t="n">
-        <v>32.2554</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3.65819</v>
-      </c>
-      <c r="X3" t="n">
-        <v>65.89997</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.9864</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>340.85701</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>332.37378</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>42.46885</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>109.84803</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>42.97149</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>329.28895</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1.63052</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>92.52136</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>91.98374</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>186.79522</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>20.56148</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>50.50329</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>126.52897</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>99.59611</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>222.31719</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>5.03276</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>193.02152</v>
-      </c>
-      <c r="C4" t="n">
-        <v>419.87948</v>
-      </c>
-      <c r="D4" t="n">
-        <v>47.89412</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01335</v>
-      </c>
-      <c r="F4" t="n">
-        <v>23.02511</v>
-      </c>
-      <c r="G4" t="n">
-        <v>267.35288</v>
-      </c>
-      <c r="H4" t="n">
-        <v>40.81516</v>
-      </c>
-      <c r="I4" t="n">
-        <v>144.45505</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22.76621</v>
-      </c>
-      <c r="K4" t="n">
-        <v>62.39441</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3995.82449</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7.27992</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14.1108</v>
-      </c>
-      <c r="O4" t="n">
-        <v>293.67754</v>
-      </c>
-      <c r="P4" t="n">
-        <v>97.22326</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>11.98524</v>
-      </c>
-      <c r="R4" t="n">
-        <v>64.82332</v>
-      </c>
-      <c r="S4" t="n">
-        <v>19.47748</v>
-      </c>
-      <c r="T4" t="n">
-        <v>11.4876</v>
-      </c>
-      <c r="U4" t="n">
-        <v>68.78384</v>
-      </c>
-      <c r="V4" t="n">
-        <v>42.61844</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.3313</v>
-      </c>
-      <c r="X4" t="n">
-        <v>62.95317</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10.80308</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>360.48684</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>321.35497</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>35.78033</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>109.81891</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>38.14033</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>287.67944</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2.48124</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>94.50591</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>87.03945</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>178.80359</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>19.88878</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>54.5964</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>125.53194</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>104.62851</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>215.2114</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>5.93615</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
